--- a/static/historial_completo.xlsx
+++ b/static/historial_completo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,11 +472,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,55 +486,55 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>sistemas</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10:43:34</t>
+          <t>08:53:33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ingreso</t>
+          <t>Apertura de puertas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ingreso de samuel</t>
+          <t>si</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09:22:35</t>
+          <t>10:43:34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -558,14 +558,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09:21:55</t>
+          <t>09:22:35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -589,45 +589,45 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09:21:06</t>
+          <t>09:21:55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esteban</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Salida</t>
+          <t>Ingreso</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>salida</t>
+          <t>ingreso de samuel</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14:36:28</t>
+          <t>09:21:06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -651,14 +651,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14:35:02</t>
+          <t>14:36:28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -667,12 +667,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ingreso</t>
+          <t>Salida</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ingreso</t>
+          <t>salida</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -682,41 +682,10 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>14:34:54</t>
+          <t>14:35:02</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>13</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Apertura de puertas</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apertura B3 </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>14:13:58</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
